--- a/Data/raw/pitcher/피어밴드_1985-08-22.xlsx
+++ b/Data/raw/pitcher/피어밴드_1985-08-22.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,22 +52,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -491,12 +488,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -5083,7 +5080,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5154,12 +5151,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -9031,7 +9028,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9102,12 +9099,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -9332,6 +9329,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -9915,6 +9913,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>6일</t>
@@ -10057,6 +10056,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
           <t>6일</t>
@@ -10493,6 +10493,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>6일</t>
@@ -10635,6 +10636,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
           <t>6일</t>
@@ -10777,6 +10779,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
           <t>5일</t>
@@ -11654,6 +11657,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
           <t>6일</t>
@@ -11796,6 +11800,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
           <t>7일</t>
@@ -12232,6 +12237,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -12374,6 +12380,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr">
         <is>
           <t>5일</t>
@@ -12810,6 +12817,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
           <t>6일</t>
@@ -12947,6 +12955,7 @@
           <t>0.143</t>
         </is>
       </c>
+      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
           <t>W</t>
@@ -13106,8168 +13115,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03-24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.826</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>03-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 2:6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.917</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-0.115</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04-07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>W 10:2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.284</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.231</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.511</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.249</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04-13</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L 1:3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.234</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.172</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.395</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-0.077</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>L CG</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 5:6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.179</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.549</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-0.086</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04-25</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L 4:5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.243</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.414</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.932</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-0.224</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05-01</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>L 2:4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.266</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.478</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1.288</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-1.78</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-0.249</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05-31</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>L 0:6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.320</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.695</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-0.109</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>06-06</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>L 2:5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.628</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.259</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>06-12</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>L 2:3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.264</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.671</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.177</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>06-17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.261</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.296</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.776</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-0.058</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>06-23</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L 4:7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.258</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.357</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.835</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-2.67</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-0.298</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>W 6:5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.268</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.414</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.821</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-0.090</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>W 9:1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.263</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.603</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.092</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L 1:8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1.144</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-3.23</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>-0.227</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>W 6:5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.845</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-0.094</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>W 11:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.536</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1.228</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-4.23</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-0.379</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>넥센</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L 1:3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.573</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.236</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>W 7:1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.283</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.531</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.310</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>W 5:3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.283</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.310</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.739</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-0.263</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.192</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.577</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.179</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>@넥센</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>L 4:6</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.519</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>-0.129</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>L 5:7</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.282</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.448</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>1.102</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-4.23</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>-0.377</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>W 6:1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.490</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D 5:5</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.281</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.346</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.826</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>-0.042</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.182</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.143</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>L 6:10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-3.78</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-0.373</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03-24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.826</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>03-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 2:6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.917</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-0.115</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04-07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>W 10:2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.284</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.231</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.511</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.249</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04-13</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L 1:3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.234</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.172</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.395</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-0.077</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>L CG</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 5:6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.179</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.549</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-0.086</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04-25</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L 4:5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.243</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.414</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.932</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-0.224</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05-01</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>L 2:4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.266</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.478</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1.288</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-1.78</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-0.249</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05-31</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>L 0:6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.320</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.695</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-0.109</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>06-06</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>L 2:5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.628</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.259</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>06-12</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>L 2:3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.264</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.671</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.177</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>06-17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.261</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.296</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.776</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-0.058</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>06-23</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L 4:7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.258</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.357</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.835</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-2.67</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-0.298</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>W 6:5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.268</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.414</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.821</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-0.090</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>W 9:1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.263</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.603</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.092</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L 1:8</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1.144</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-3.23</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>-0.227</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>W 6:5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.845</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-0.094</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>W 11:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.290</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.536</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1.228</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-4.23</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-0.379</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>넥센</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L 1:3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.573</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.236</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>W 7:1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.283</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.531</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.310</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>W 5:3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.283</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.310</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.739</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-0.263</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.192</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.577</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.179</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>@넥센</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>L 4:6</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.519</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>-0.129</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>L 5:7</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.282</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.448</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>1.102</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-4.23</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>-0.377</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>W 6:1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.490</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>D 5:5</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.281</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.346</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.826</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>-0.042</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.279</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.182</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.364</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.143</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>L 6:10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-3.78</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-0.373</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>